--- a/D&D Info.xlsx
+++ b/D&D Info.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\cs4097\D-D\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,368 +26,365 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="118">
   <si>
-    <t xml:space="preserve">Field Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variable Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text – password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Char_Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image file (or hyperlink)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ideals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ideal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flaws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backstory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int (in mm)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dropdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fighting Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fighting_style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weapon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency_Modifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proficiency_mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constitution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dexterity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellcasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spellcasting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">character_list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyperlink list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personality Traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traits_of_Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notable_traits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub_race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">archetype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool_Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool_prof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapon_Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weapon_prof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spells_player_is_able_to_use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">available_spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Required?</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>text – password</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Char_Icon</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>image file (or hyperlink)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Ideals</t>
+  </si>
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>text area</t>
+  </si>
+  <si>
+    <t>Flaws</t>
+  </si>
+  <si>
+    <t>flaw</t>
+  </si>
+  <si>
+    <t>Backstory</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>radio button</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>int (in mm)</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>dropdown</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>class_name</t>
+  </si>
+  <si>
+    <t>Fighting Style</t>
+  </si>
+  <si>
+    <t>fighting_style</t>
+  </si>
+  <si>
+    <t>text?</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>subform</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>Proficiency_Modifier</t>
+  </si>
+  <si>
+    <t>proficiency_mod</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>Dex</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Charisma</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Spellcasting</t>
+  </si>
+  <si>
+    <t>spellcasting</t>
+  </si>
+  <si>
+    <t>Feats</t>
+  </si>
+  <si>
+    <t>feat</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Character List</t>
+  </si>
+  <si>
+    <t>character_list</t>
+  </si>
+  <si>
+    <t>hyperlink list</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>char_name</t>
+  </si>
+  <si>
+    <t>Personality Traits</t>
+  </si>
+  <si>
+    <t>traits</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>bonds</t>
+  </si>
+  <si>
+    <t>Traits_of_Note</t>
+  </si>
+  <si>
+    <t>notable_traits</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Sub_race</t>
+  </si>
+  <si>
+    <t>sub_race</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>Archetype</t>
+  </si>
+  <si>
+    <t>archetype</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>Tool_Proficiency</t>
+  </si>
+  <si>
+    <t>tool_prof</t>
+  </si>
+  <si>
+    <t>Weapon_Proficiency</t>
+  </si>
+  <si>
+    <t>weapon_prof</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>Saves</t>
+  </si>
+  <si>
+    <t>saves</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Spells_player_is_able_to_use</t>
+  </si>
+  <si>
+    <t>available_spells</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>wis</t>
+  </si>
+  <si>
+    <t>dex</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>str</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,22 +393,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -424,130 +410,386 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col min="1" max="1" width="24.7109375"/>
+    <col min="2" max="2" width="27.140625"/>
+    <col min="3" max="3" width="24.85546875"/>
+    <col min="4" max="4" width="25.5703125"/>
+    <col min="5" max="5" width="25.5703125" style="1"/>
+    <col min="6" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -581,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -598,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -615,7 +857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -632,7 +874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -649,7 +891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -666,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -683,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -700,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>33</v>
       </c>
@@ -717,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -734,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -751,12 +993,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>17</v>
@@ -768,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
@@ -785,7 +1027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>43</v>
       </c>
@@ -802,7 +1044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
@@ -819,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
@@ -836,7 +1078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -853,12 +1095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>28</v>
@@ -870,12 +1112,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>28</v>
@@ -887,12 +1129,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>28</v>
@@ -904,12 +1146,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>28</v>
@@ -921,12 +1163,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>28</v>
@@ -938,12 +1180,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>28</v>
@@ -955,21 +1197,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>45</v>
@@ -981,12 +1223,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>32</v>
@@ -998,12 +1240,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -1015,15 +1257,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>8</v>
@@ -1032,12 +1274,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
@@ -1049,12 +1291,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>45</v>
@@ -1064,12 +1306,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -1081,12 +1323,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>17</v>
@@ -1098,12 +1340,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
@@ -1115,12 +1357,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>28</v>
@@ -1132,12 +1374,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>28</v>
@@ -1149,12 +1391,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>32</v>
@@ -1166,12 +1408,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>28</v>
@@ -1183,12 +1425,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>32</v>
@@ -1200,12 +1442,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>28</v>
@@ -1217,12 +1459,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>28</v>
@@ -1234,12 +1476,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>28</v>
@@ -1251,12 +1493,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>28</v>
@@ -1268,12 +1510,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>45</v>
@@ -1285,12 +1527,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>32</v>
@@ -1302,12 +1544,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>45</v>
@@ -1319,12 +1561,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>45</v>
@@ -1336,12 +1578,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>28</v>
@@ -1353,12 +1595,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>32</v>
@@ -1370,12 +1612,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>17</v>
@@ -1388,12 +1630,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>